--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H2">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I2">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J2">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N2">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O2">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P2">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q2">
-        <v>27.24215133309667</v>
+        <v>54.33578428172245</v>
       </c>
       <c r="R2">
-        <v>245.17936199787</v>
+        <v>489.022058535502</v>
       </c>
       <c r="S2">
-        <v>0.001327134011762366</v>
+        <v>0.002148887436791481</v>
       </c>
       <c r="T2">
-        <v>0.001327134011762366</v>
+        <v>0.002148887436791481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H3">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I3">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J3">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>309.820785</v>
       </c>
       <c r="O3">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P3">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q3">
-        <v>1583.959107557817</v>
+        <v>2881.581604646912</v>
       </c>
       <c r="R3">
-        <v>14255.63196802035</v>
+        <v>25934.23444182221</v>
       </c>
       <c r="S3">
-        <v>0.07716446396532771</v>
+        <v>0.1139616293419018</v>
       </c>
       <c r="T3">
-        <v>0.0771644639653277</v>
+        <v>0.1139616293419018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H4">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I4">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J4">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N4">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O4">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P4">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q4">
-        <v>518.0274164090378</v>
+        <v>869.0443046229816</v>
       </c>
       <c r="R4">
-        <v>4662.24674768134</v>
+        <v>7821.398741606835</v>
       </c>
       <c r="S4">
-        <v>0.02523632568278782</v>
+        <v>0.03436921750382647</v>
       </c>
       <c r="T4">
-        <v>0.02523632568278782</v>
+        <v>0.03436921750382647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.33750333333333</v>
+        <v>27.90240433333333</v>
       </c>
       <c r="H5">
-        <v>46.01251</v>
+        <v>83.707213</v>
       </c>
       <c r="I5">
-        <v>0.1440483515229199</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="J5">
-        <v>0.1440483515229198</v>
+        <v>0.2174736967445081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N5">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O5">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P5">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q5">
-        <v>827.65959422708</v>
+        <v>1693.978674819548</v>
       </c>
       <c r="R5">
-        <v>7448.93634804372</v>
+        <v>15245.80807337593</v>
       </c>
       <c r="S5">
-        <v>0.04032042786304196</v>
+        <v>0.06699396246198833</v>
       </c>
       <c r="T5">
-        <v>0.04032042786304196</v>
+        <v>0.06699396246198833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H6">
         <v>194.766323</v>
       </c>
       <c r="I6">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J6">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N6">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O6">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P6">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q6">
-        <v>115.3132842732723</v>
+        <v>126.4261529274936</v>
       </c>
       <c r="R6">
-        <v>1037.819558459451</v>
+        <v>1137.835376347442</v>
       </c>
       <c r="S6">
-        <v>0.005617624676402021</v>
+        <v>0.00499993835184516</v>
       </c>
       <c r="T6">
-        <v>0.00561762467640202</v>
+        <v>0.00499993835184516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H7">
         <v>194.766323</v>
       </c>
       <c r="I7">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J7">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>309.820785</v>
       </c>
       <c r="O7">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P7">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q7">
-        <v>6704.739453713728</v>
+        <v>6704.73945371373</v>
       </c>
       <c r="R7">
-        <v>60342.65508342355</v>
+        <v>60342.65508342356</v>
       </c>
       <c r="S7">
-        <v>0.326629408236866</v>
+        <v>0.2651609904872967</v>
       </c>
       <c r="T7">
-        <v>0.3266294082368659</v>
+        <v>0.2651609904872966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H8">
         <v>194.766323</v>
       </c>
       <c r="I8">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J8">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N8">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O8">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P8">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q8">
-        <v>2192.757906647087</v>
+        <v>2022.054703165306</v>
       </c>
       <c r="R8">
-        <v>19734.82115982378</v>
+        <v>18198.49232848776</v>
       </c>
       <c r="S8">
-        <v>0.1068228262111119</v>
+        <v>0.07996880887203257</v>
       </c>
       <c r="T8">
-        <v>0.1068228262111119</v>
+        <v>0.07996880887203257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.92210766666666</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H9">
         <v>194.766323</v>
       </c>
       <c r="I9">
-        <v>0.6097421714296949</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="J9">
-        <v>0.6097421714296948</v>
+        <v>0.5060083921817455</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N9">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O9">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P9">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q9">
-        <v>3503.399746357684</v>
+        <v>3941.476318594148</v>
       </c>
       <c r="R9">
-        <v>31530.59771721916</v>
+        <v>35473.28686734733</v>
       </c>
       <c r="S9">
-        <v>0.170672312305315</v>
+        <v>0.1558786544705711</v>
       </c>
       <c r="T9">
-        <v>0.170672312305315</v>
+        <v>0.1558786544705711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H10">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I10">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J10">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N10">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O10">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P10">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q10">
-        <v>27.59653042275901</v>
+        <v>37.824045625922</v>
       </c>
       <c r="R10">
-        <v>248.3687738048311</v>
+        <v>340.416410633298</v>
       </c>
       <c r="S10">
-        <v>0.001344398013316343</v>
+        <v>0.001495876382914611</v>
       </c>
       <c r="T10">
-        <v>0.001344398013316343</v>
+        <v>0.001495876382914611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H11">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I11">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J11">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>309.820785</v>
       </c>
       <c r="O11">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P11">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q11">
-        <v>1604.564014260495</v>
+        <v>2005.917012697755</v>
       </c>
       <c r="R11">
-        <v>14441.07612834446</v>
+        <v>18053.2531142798</v>
       </c>
       <c r="S11">
-        <v>0.07816825665996313</v>
+        <v>0.07933059078494746</v>
       </c>
       <c r="T11">
-        <v>0.07816825665996312</v>
+        <v>0.07933059078494746</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H12">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I12">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J12">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N12">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O12">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P12">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q12">
-        <v>524.766167765438</v>
+        <v>604.9562339723959</v>
       </c>
       <c r="R12">
-        <v>4722.895509888942</v>
+        <v>5444.606105751564</v>
       </c>
       <c r="S12">
-        <v>0.0255646120215772</v>
+        <v>0.0239249854985393</v>
       </c>
       <c r="T12">
-        <v>0.0255646120215772</v>
+        <v>0.02392498549853931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.537021</v>
+        <v>19.423329</v>
       </c>
       <c r="H13">
-        <v>46.611063</v>
+        <v>58.269987</v>
       </c>
       <c r="I13">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="J13">
-        <v>0.14592220219851</v>
+        <v>0.1513870672309258</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N13">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O13">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P13">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q13">
-        <v>838.4261908136041</v>
+        <v>1179.206806945207</v>
       </c>
       <c r="R13">
-        <v>7545.835717322437</v>
+        <v>10612.86126250686</v>
       </c>
       <c r="S13">
-        <v>0.04084493550365334</v>
+        <v>0.04663561456452442</v>
       </c>
       <c r="T13">
-        <v>0.04084493550365333</v>
+        <v>0.04663561456452443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H14">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I14">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J14">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N14">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O14">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P14">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q14">
-        <v>18.96613942008367</v>
+        <v>31.26393048820556</v>
       </c>
       <c r="R14">
-        <v>170.695254780753</v>
+        <v>281.37537439385</v>
       </c>
       <c r="S14">
-        <v>0.0009239581848163383</v>
+        <v>0.001236435037037389</v>
       </c>
       <c r="T14">
-        <v>0.0009239581848163382</v>
+        <v>0.001236435037037389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H15">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I15">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J15">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>309.820785</v>
       </c>
       <c r="O15">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P15">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q15">
-        <v>1102.761265155852</v>
+        <v>1658.015397673708</v>
       </c>
       <c r="R15">
-        <v>9924.851386402665</v>
+        <v>14922.13857906338</v>
       </c>
       <c r="S15">
-        <v>0.05372233506626172</v>
+        <v>0.06557167629337696</v>
       </c>
       <c r="T15">
-        <v>0.05372233506626171</v>
+        <v>0.06557167629337694</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H16">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I16">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J16">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N16">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O16">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P16">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q16">
-        <v>360.6536092875717</v>
+        <v>500.0340215949221</v>
       </c>
       <c r="R16">
-        <v>3245.882483588146</v>
+        <v>4500.3061943543</v>
       </c>
       <c r="S16">
-        <v>0.01756967228828563</v>
+        <v>0.0197754912564149</v>
       </c>
       <c r="T16">
-        <v>0.01756967228828563</v>
+        <v>0.0197754912564149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.67805633333333</v>
+        <v>16.05459166666667</v>
       </c>
       <c r="H17">
-        <v>32.034169</v>
+        <v>48.163775</v>
       </c>
       <c r="I17">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="J17">
-        <v>0.1002872748488753</v>
+        <v>0.1251308438428206</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N17">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O17">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P17">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q17">
-        <v>576.2212779946519</v>
+        <v>974.6879011347194</v>
       </c>
       <c r="R17">
-        <v>5185.991501951868</v>
+        <v>8772.191110212474</v>
       </c>
       <c r="S17">
-        <v>0.02807130930951159</v>
+        <v>0.03854724125599131</v>
       </c>
       <c r="T17">
-        <v>0.02807130930951158</v>
+        <v>0.03854724125599131</v>
       </c>
     </row>
   </sheetData>
